--- a/Artefatos/burndown/Burndown 2.xlsx
+++ b/Artefatos/burndown/Burndown 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aninh\OneDrive\Documentos\Fatec\2° Semestre\API\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E254E6-7A22-4FC4-8F0E-D57921327C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3683AF-7B30-44D8-80CF-8AE5EBAF1E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Data de início:</t>
   </si>
@@ -119,6 +119,12 @@
   <si>
     <t>Gif</t>
   </si>
+  <si>
+    <t>Validação Sprint e Atualização Backlog</t>
+  </si>
+  <si>
+    <t>Estudo User Stories</t>
+  </si>
 </sst>
 </file>
 
@@ -127,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -158,8 +164,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +187,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFBDAD7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -430,6 +448,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -439,27 +478,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,67 +647,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.4</c:v>
+                  <c:v>34.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.799999999999997</c:v>
+                  <c:v>32.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.199999999999996</c:v>
+                  <c:v>30.600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.599999999999994</c:v>
+                  <c:v>28.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.999999999999993</c:v>
+                  <c:v>27.000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.399999999999991</c:v>
+                  <c:v>25.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.79999999999999</c:v>
+                  <c:v>23.400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.199999999999989</c:v>
+                  <c:v>21.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.599999999999987</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.999999999999988</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.399999999999988</c:v>
+                  <c:v>16.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.799999999999988</c:v>
+                  <c:v>14.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.199999999999989</c:v>
+                  <c:v>12.599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.599999999999989</c:v>
+                  <c:v>10.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.9999999999999893</c:v>
+                  <c:v>8.9999999999999964</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.3999999999999897</c:v>
+                  <c:v>7.1999999999999966</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.7999999999999901</c:v>
+                  <c:v>5.3999999999999968</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.19999999999999</c:v>
+                  <c:v>3.599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5999999999999899</c:v>
+                  <c:v>1.7999999999999969</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.021405182655144E-14</c:v>
+                  <c:v>-3.1086244689504383E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -790,55 +812,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>31</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>7</c:v>
@@ -847,10 +869,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1293,7 +1315,7 @@
   <dimension ref="A1:N1012"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1311,7 +1333,7 @@
       </c>
       <c r="E1" s="2">
         <f ca="1">TODAY()</f>
-        <v>44694</v>
+        <v>44696</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1359,7 +1381,7 @@
       </c>
       <c r="C5" s="6">
         <f>SUM(J29:J1012)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" s="6">
         <f>SUMIF($K$29:$K$1012,B5,$J$29:$J$1012)</f>
@@ -1367,7 +1389,7 @@
       </c>
       <c r="E5" s="8">
         <f>C5-D5</f>
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1380,7 +1402,7 @@
       </c>
       <c r="C6" s="6">
         <f t="shared" ref="C6:C25" si="1">C5-$C$5/($B$2-1)</f>
-        <v>30.4</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="D6" s="6">
         <f>SUMIF($K$29:$K$1012,B6,$J$29:$J$1012)</f>
@@ -1388,7 +1410,7 @@
       </c>
       <c r="E6" s="6">
         <f t="shared" ref="E6:E25" ca="1" si="2">IF(B6&lt;=$E$1,E5-D6,)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1401,7 +1423,7 @@
       </c>
       <c r="C7" s="6">
         <f t="shared" si="1"/>
-        <v>28.799999999999997</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="D7" s="6">
         <f>SUMIF($K$29:$K$1012,B7,$J$29:$J$1012)</f>
@@ -1409,7 +1431,7 @@
       </c>
       <c r="E7" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1422,7 +1444,7 @@
       </c>
       <c r="C8" s="6">
         <f t="shared" si="1"/>
-        <v>27.199999999999996</v>
+        <v>30.600000000000005</v>
       </c>
       <c r="D8" s="6">
         <f>SUMIF($K$29:$K$1012,B8,$J$29:$J$1012)</f>
@@ -1430,7 +1452,7 @@
       </c>
       <c r="E8" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1443,7 +1465,7 @@
       </c>
       <c r="C9" s="6">
         <f t="shared" si="1"/>
-        <v>25.599999999999994</v>
+        <v>28.800000000000004</v>
       </c>
       <c r="D9" s="6">
         <f>SUMIF($K$29:$K$1012,B9,$J$29:$J$1012)</f>
@@ -1451,7 +1473,7 @@
       </c>
       <c r="E9" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1464,7 +1486,7 @@
       </c>
       <c r="C10" s="6">
         <f t="shared" si="1"/>
-        <v>23.999999999999993</v>
+        <v>27.000000000000004</v>
       </c>
       <c r="D10" s="6">
         <f>SUMIF($K$29:$K$1012,B10,$J$29:$J$1012)</f>
@@ -1472,7 +1494,7 @@
       </c>
       <c r="E10" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1485,7 +1507,7 @@
       </c>
       <c r="C11" s="6">
         <f t="shared" si="1"/>
-        <v>22.399999999999991</v>
+        <v>25.200000000000003</v>
       </c>
       <c r="D11" s="6">
         <f>SUMIF($K$29:$K$1012,B11,$J$29:$J$1012)</f>
@@ -1493,7 +1515,7 @@
       </c>
       <c r="E11" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1506,7 +1528,7 @@
       </c>
       <c r="C12" s="6">
         <f t="shared" si="1"/>
-        <v>20.79999999999999</v>
+        <v>23.400000000000002</v>
       </c>
       <c r="D12" s="6">
         <f>SUMIF($K$29:$K$1012,B12,$J$29:$J$1012)</f>
@@ -1514,7 +1536,7 @@
       </c>
       <c r="E12" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1527,7 +1549,7 @@
       </c>
       <c r="C13" s="6">
         <f t="shared" si="1"/>
-        <v>19.199999999999989</v>
+        <v>21.6</v>
       </c>
       <c r="D13" s="6">
         <f>SUMIF($K$29:$K$1012,B13,$J$29:$J$1012)</f>
@@ -1535,7 +1557,7 @@
       </c>
       <c r="E13" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1548,15 +1570,15 @@
       </c>
       <c r="C14" s="6">
         <f t="shared" si="1"/>
-        <v>17.599999999999987</v>
+        <v>19.8</v>
       </c>
       <c r="D14" s="6">
         <f>SUMIF($K$29:$K$1012,B14,$J$29:$J$1012)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1569,7 +1591,7 @@
       </c>
       <c r="C15" s="6">
         <f t="shared" si="1"/>
-        <v>15.999999999999988</v>
+        <v>18</v>
       </c>
       <c r="D15" s="6">
         <f>SUMIF($K$29:$K$1012,B15,$J$29:$J$1012)</f>
@@ -1577,7 +1599,7 @@
       </c>
       <c r="E15" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1590,7 +1612,7 @@
       </c>
       <c r="C16" s="6">
         <f t="shared" si="1"/>
-        <v>14.399999999999988</v>
+        <v>16.2</v>
       </c>
       <c r="D16" s="6">
         <f>SUMIF($K$29:$K$1012,B16,$J$29:$J$1012)</f>
@@ -1598,7 +1620,7 @@
       </c>
       <c r="E16" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
@@ -1611,7 +1633,7 @@
       </c>
       <c r="C17" s="6">
         <f t="shared" si="1"/>
-        <v>12.799999999999988</v>
+        <v>14.399999999999999</v>
       </c>
       <c r="D17" s="6">
         <f>SUMIF($K$29:$K$1012,B17,$J$29:$J$1012)</f>
@@ -1619,7 +1641,7 @@
       </c>
       <c r="E17" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -1641,7 +1663,7 @@
       </c>
       <c r="C18" s="6">
         <f t="shared" si="1"/>
-        <v>11.199999999999989</v>
+        <v>12.599999999999998</v>
       </c>
       <c r="D18" s="6">
         <f>SUMIF($K$29:$K$1012,B18,$J$29:$J$1012)</f>
@@ -1649,7 +1671,7 @@
       </c>
       <c r="E18" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -1671,7 +1693,7 @@
       </c>
       <c r="C19" s="6">
         <f t="shared" si="1"/>
-        <v>9.599999999999989</v>
+        <v>10.799999999999997</v>
       </c>
       <c r="D19" s="6">
         <f>SUMIF($K$29:$K$1012,B19,$J$29:$J$1012)</f>
@@ -1679,7 +1701,7 @@
       </c>
       <c r="E19" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -1701,7 +1723,7 @@
       </c>
       <c r="C20" s="6">
         <f t="shared" si="1"/>
-        <v>7.9999999999999893</v>
+        <v>8.9999999999999964</v>
       </c>
       <c r="D20" s="6">
         <f>SUMIF($K$29:$K$1012,B20,$J$29:$J$1012)</f>
@@ -1709,7 +1731,7 @@
       </c>
       <c r="E20" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -1731,7 +1753,7 @@
       </c>
       <c r="C21" s="6">
         <f t="shared" si="1"/>
-        <v>6.3999999999999897</v>
+        <v>7.1999999999999966</v>
       </c>
       <c r="D21" s="6">
         <f>SUMIF($K$29:$K$1012,B21,$J$29:$J$1012)</f>
@@ -1739,7 +1761,7 @@
       </c>
       <c r="E21" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
@@ -1761,11 +1783,11 @@
       </c>
       <c r="C22" s="6">
         <f t="shared" si="1"/>
-        <v>4.7999999999999901</v>
+        <v>5.3999999999999968</v>
       </c>
       <c r="D22" s="6">
         <f>SUMIF($K$29:$K$1012,B22,$J$29:$J$1012)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -1791,7 +1813,7 @@
       </c>
       <c r="C23" s="6">
         <f t="shared" si="1"/>
-        <v>3.19999999999999</v>
+        <v>3.599999999999997</v>
       </c>
       <c r="D23" s="6">
         <f>SUMIF($K$29:$K$1012,B23,$J$29:$J$1012)</f>
@@ -1821,15 +1843,15 @@
       </c>
       <c r="C24" s="6">
         <f t="shared" si="1"/>
-        <v>1.5999999999999899</v>
+        <v>1.7999999999999969</v>
       </c>
       <c r="D24" s="6">
         <f>SUMIF($K$29:$K$1012,B24,$J$29:$J$1012)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -1851,15 +1873,15 @@
       </c>
       <c r="C25" s="6">
         <f t="shared" si="1"/>
-        <v>-1.021405182655144E-14</v>
+        <v>-3.1086244689504383E-15</v>
       </c>
       <c r="D25" s="6">
         <f>SUMIF($K$29:$K$1012,B25,$J$29:$J$1012)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -1888,7 +1910,7 @@
       <c r="N26" s="19"/>
     </row>
     <row r="27" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="34"/>
@@ -1906,7 +1928,7 @@
       <c r="N27" s="19"/>
     </row>
     <row r="28" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="34"/>
@@ -1932,15 +1954,15 @@
       <c r="N28" s="19"/>
     </row>
     <row r="29" spans="1:14" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
       <c r="H29" s="7">
         <v>44676</v>
       </c>
@@ -1956,7 +1978,7 @@
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="33" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="34"/>
@@ -1980,15 +2002,15 @@
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="39"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
       <c r="H31" s="12">
         <v>44678</v>
       </c>
@@ -2006,7 +2028,7 @@
       <c r="N31" s="26"/>
     </row>
     <row r="32" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="34"/>
@@ -2030,7 +2052,7 @@
       <c r="L32" s="17"/>
     </row>
     <row r="33" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="34"/>
@@ -2056,7 +2078,7 @@
       <c r="N33" s="19"/>
     </row>
     <row r="34" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="34"/>
@@ -2080,7 +2102,7 @@
       <c r="L34" s="3"/>
     </row>
     <row r="35" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="33" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="34"/>
@@ -2099,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="16">
-        <v>44695</v>
+        <v>44696</v>
       </c>
       <c r="L35" s="9"/>
       <c r="M35" s="19"/>
@@ -2109,15 +2131,15 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="45"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
       <c r="H36" s="15">
         <v>44693</v>
       </c>
@@ -2135,15 +2157,15 @@
       <c r="N36" s="19"/>
     </row>
     <row r="37" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="45"/>
       <c r="H37" s="29">
         <v>44693</v>
       </c>
@@ -2157,66 +2179,86 @@
         <v>44694</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
+    <row r="38" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="29">
+        <v>44677</v>
+      </c>
+      <c r="I38" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="25">
+        <v>2</v>
+      </c>
+      <c r="K38" s="29">
+        <v>44685</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="29">
+        <v>44686</v>
+      </c>
+      <c r="I39" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="25">
+        <v>2</v>
+      </c>
+      <c r="K39" s="29">
+        <v>44693</v>
+      </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="30"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="32"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
     </row>
     <row r="42" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="40"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="42"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="38"/>
       <c r="H42" s="22"/>
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
@@ -2224,7 +2266,7 @@
       <c r="L42" s="3"/>
     </row>
     <row r="43" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="37"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
@@ -2238,7 +2280,7 @@
       <c r="L43" s="3"/>
     </row>
     <row r="44" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="37"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
@@ -2252,7 +2294,7 @@
       <c r="L44" s="3"/>
     </row>
     <row r="45" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="37"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
@@ -2266,7 +2308,7 @@
       <c r="L45" s="3"/>
     </row>
     <row r="46" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="37"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
@@ -2280,7 +2322,7 @@
       <c r="L46" s="3"/>
     </row>
     <row r="47" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="37"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
@@ -2294,7 +2336,7 @@
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="37"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
@@ -2308,7 +2350,7 @@
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="37"/>
+      <c r="A49" s="33"/>
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
@@ -2322,7 +2364,7 @@
       <c r="L49" s="3"/>
     </row>
     <row r="50" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="37"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="34"/>
       <c r="C50" s="34"/>
       <c r="D50" s="34"/>
@@ -2336,7 +2378,7 @@
       <c r="L50" s="3"/>
     </row>
     <row r="51" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="37"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="34"/>
       <c r="C51" s="34"/>
       <c r="D51" s="34"/>
@@ -2350,7 +2392,7 @@
       <c r="L51" s="3"/>
     </row>
     <row r="52" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="37"/>
+      <c r="A52" s="33"/>
       <c r="B52" s="34"/>
       <c r="C52" s="34"/>
       <c r="D52" s="34"/>
@@ -2364,7 +2406,7 @@
       <c r="L52" s="3"/>
     </row>
     <row r="53" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="37"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="34"/>
       <c r="C53" s="34"/>
       <c r="D53" s="34"/>
@@ -2378,7 +2420,7 @@
       <c r="L53" s="3"/>
     </row>
     <row r="54" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="37"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
       <c r="D54" s="34"/>
@@ -2392,7 +2434,7 @@
       <c r="L54" s="3"/>
     </row>
     <row r="55" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="37"/>
+      <c r="A55" s="33"/>
       <c r="B55" s="34"/>
       <c r="C55" s="34"/>
       <c r="D55" s="34"/>
@@ -2406,7 +2448,7 @@
       <c r="L55" s="3"/>
     </row>
     <row r="56" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="37"/>
+      <c r="A56" s="33"/>
       <c r="B56" s="34"/>
       <c r="C56" s="34"/>
       <c r="D56" s="34"/>
@@ -2420,7 +2462,7 @@
       <c r="L56" s="3"/>
     </row>
     <row r="57" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="37"/>
+      <c r="A57" s="33"/>
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
@@ -2434,7 +2476,7 @@
       <c r="L57" s="3"/>
     </row>
     <row r="58" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="37"/>
+      <c r="A58" s="33"/>
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
       <c r="D58" s="34"/>
@@ -2448,7 +2490,7 @@
       <c r="L58" s="3"/>
     </row>
     <row r="59" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="37"/>
+      <c r="A59" s="33"/>
       <c r="B59" s="34"/>
       <c r="C59" s="34"/>
       <c r="D59" s="34"/>
@@ -2462,7 +2504,7 @@
       <c r="L59" s="3"/>
     </row>
     <row r="60" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="37"/>
+      <c r="A60" s="33"/>
       <c r="B60" s="34"/>
       <c r="C60" s="34"/>
       <c r="D60" s="34"/>
@@ -2476,7 +2518,7 @@
       <c r="L60" s="3"/>
     </row>
     <row r="61" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="37"/>
+      <c r="A61" s="33"/>
       <c r="B61" s="34"/>
       <c r="C61" s="34"/>
       <c r="D61" s="34"/>
@@ -2490,7 +2532,7 @@
       <c r="L61" s="3"/>
     </row>
     <row r="62" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="37"/>
+      <c r="A62" s="33"/>
       <c r="B62" s="34"/>
       <c r="C62" s="34"/>
       <c r="D62" s="34"/>
@@ -2504,7 +2546,7 @@
       <c r="L62" s="3"/>
     </row>
     <row r="63" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="37"/>
+      <c r="A63" s="33"/>
       <c r="B63" s="34"/>
       <c r="C63" s="34"/>
       <c r="D63" s="34"/>
@@ -2518,7 +2560,7 @@
       <c r="L63" s="3"/>
     </row>
     <row r="64" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="37"/>
+      <c r="A64" s="33"/>
       <c r="B64" s="34"/>
       <c r="C64" s="34"/>
       <c r="D64" s="34"/>
@@ -2532,7 +2574,7 @@
       <c r="L64" s="3"/>
     </row>
     <row r="65" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="37"/>
+      <c r="A65" s="33"/>
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
       <c r="D65" s="34"/>
@@ -2546,7 +2588,7 @@
       <c r="L65" s="3"/>
     </row>
     <row r="66" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="37"/>
+      <c r="A66" s="33"/>
       <c r="B66" s="34"/>
       <c r="C66" s="34"/>
       <c r="D66" s="34"/>
@@ -2560,7 +2602,7 @@
       <c r="L66" s="3"/>
     </row>
     <row r="67" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="37"/>
+      <c r="A67" s="33"/>
       <c r="B67" s="34"/>
       <c r="C67" s="34"/>
       <c r="D67" s="34"/>
@@ -2574,7 +2616,7 @@
       <c r="L67" s="3"/>
     </row>
     <row r="68" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="37"/>
+      <c r="A68" s="33"/>
       <c r="B68" s="34"/>
       <c r="C68" s="34"/>
       <c r="D68" s="34"/>
@@ -2588,7 +2630,7 @@
       <c r="L68" s="3"/>
     </row>
     <row r="69" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="37"/>
+      <c r="A69" s="33"/>
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
       <c r="D69" s="34"/>
@@ -2602,7 +2644,7 @@
       <c r="L69" s="3"/>
     </row>
     <row r="70" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="37"/>
+      <c r="A70" s="33"/>
       <c r="B70" s="34"/>
       <c r="C70" s="34"/>
       <c r="D70" s="34"/>
@@ -2616,7 +2658,7 @@
       <c r="L70" s="3"/>
     </row>
     <row r="71" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="37"/>
+      <c r="A71" s="33"/>
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
       <c r="D71" s="34"/>
@@ -2630,7 +2672,7 @@
       <c r="L71" s="3"/>
     </row>
     <row r="72" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="37"/>
+      <c r="A72" s="33"/>
       <c r="B72" s="34"/>
       <c r="C72" s="34"/>
       <c r="D72" s="34"/>
@@ -15805,6 +15847,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A68:G68"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A56:G56"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="A69:G69"/>
     <mergeCell ref="A70:G70"/>
@@ -15821,36 +15893,6 @@
     <mergeCell ref="A58:G58"/>
     <mergeCell ref="A59:G59"/>
     <mergeCell ref="A67:G67"/>
-    <mergeCell ref="A68:G68"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A41:G41"/>
   </mergeCells>
   <conditionalFormatting sqref="J30:J35 I33:I36 I42:J1012 I29:J34">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -15864,21 +15906,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001B6A24C307C6164BB0F6055DF1624B6E" ma:contentTypeVersion="0" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="0db081465d12e3f126b3305fd57011d3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d2d35cd79d80d3b38601b74d693a05d">
     <xsd:element name="properties">
@@ -15992,10 +16019,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5FC91F1-A823-4F9F-90A6-265093AD8A7F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A1E4B4D-5AAE-43D6-8247-01498DC21AE4}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -16010,17 +16059,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A1E4B4D-5AAE-43D6-8247-01498DC21AE4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5FC91F1-A823-4F9F-90A6-265093AD8A7F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>